--- a/02_programme_task/xlsx_out/34.Nahum.xlsx
+++ b/02_programme_task/xlsx_out/34.Nahum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,528 +448,552 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nahum 1:2</t>
+          <t>Nahum 1:1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Lord is a jealous and avenging God; - the Lord is avenging and wrathful; - the Lord takes vengeance on his adversaries - and keeps wrath for his enemies. -</t>
+          <t>Nahum</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nahum 1:3</t>
+          <t>Nahum 1:2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Lord is slow to anger and great in power, - and the Lord will by no means clear the guilty. - His way is in whirlwind and storm, - and the clouds are the dust of his feet. -</t>
+          <t>a An oracle concerning b Nineveh. The book of the vision of Nahum of Elkosh. God s Wrath Against Nineveh</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nahum 1:4</t>
+          <t>Nahum 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>He rebukes the sea and makes it dry; - he dries up all the rivers; - Bashan and Carmel wither; - the bloom of Lebanon withers. -</t>
+          <t>c The Lord is a jealous and avenging God; the Lord is avenging and wrathful; d the Lord takes vengeance on his adversaries and e keeps wrath for his enemies.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nahum 1:5</t>
+          <t>Nahum 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The mountains quake before him; - the hills melt; - the earth heaves before him, - the world and all who dwell in it. -</t>
+          <t>f The Lord is slow to anger and g great in power, and h the Lord will by no means clear the guilty. i His way is in whirlwind and storm, and the clouds are the dust of his feet.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nahum 1:6</t>
+          <t>Nahum 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Who can stand before his indignation - Who can endure the heat of his anger - His wrath is poured out like fire, - and the rocks are broken into pieces by him. -</t>
+          <t>j He rebukes the sea and makes it dry; he dries up all the rivers; k Bashan and l Carmel wither; the bloom of k Lebanon withers.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nahum 1:7</t>
+          <t>Nahum 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Lord is good, - a stronghold in the day of trouble; - he knows those who take refuge in him. -</t>
+          <t>m The mountains quake before him; n the hills melt; the earth heaves before him, o the world and all who dwell in it.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nahum 1:8</t>
+          <t>Nahum 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>But with an overflowing flood - he will make a complete end of the adversaries, - and will pursue his enemies into darkness. -</t>
+          <t>p Who can stand before his indignation? Who can endure the heat of his anger? His wrath q is poured out like fire, and r the rocks are broken into pieces by him.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nahum 1:9</t>
+          <t>Nahum 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What do you plot against the Lord - He will make a complete end; trouble will not rise up a second time. -</t>
+          <t>s The Lord is good, t a stronghold in the day of trouble; u he knows those who take refuge in him.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nahum 1:10</t>
+          <t>Nahum 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>For they are like entangled thorns, - like drunkards as they drink; they are consumed like stubble fully dried. -</t>
+          <t>But v with an overflowing flood he will make a complete end of the adversaries, and w will pursue his enemies into darkness.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nahum 1:11</t>
+          <t>Nahum 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>From you came one - who plotted evil against the Lord , - a worthless counselor. -</t>
+          <t>What x do you plot against the Lord? y He will make a complete end; trouble will not rise up a second time.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nahum 1:12</t>
+          <t>Nahum 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thus says the Lord , - Though they are at full strength and many, - they will be cut down and pass away. - Though I have afflicted you, - I will afflict you no more. -</t>
+          <t>For they are z like entangled thorns, like drunkards as they drink; a they are consumed like stubble fully dried.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nahum 1:13</t>
+          <t>Nahum 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>And now I will break his yoke from off you - and will burst your bonds apart. -</t>
+          <t>From you came one b who plotted evil against the Lord, a worthless counselor.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nahum 1:14</t>
+          <t>Nahum 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The Lord has given commandment about you: - No more shall your name be perpetuated; - from the house of your gods I will cut off - the carved image and the metal image. - I will make your grave, for you are vile. -</t>
+          <t>Thus says the Lord, Though they are at full strength and many, c they will be cut down and pass away. d Though I have afflicted you, I will afflict you no more.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nahum 2:1</t>
+          <t>Nahum 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The scatterer has come up against you. - Man the ramparts; - watch the road; - dress for battle; - collect all your strength. -</t>
+          <t>And now e I will break his yoke from off you and will burst your bonds apart.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nahum 2:2</t>
+          <t>Nahum 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>For the Lord is restoring the majesty of Jacob - as the majesty of Israel, - for plunderers have plundered them - and ruined their branches. -</t>
+          <t>The Lord has given commandment about you: f No more shall your name be perpetuated; from g the house of your gods I will cut off the carved image and the metal image. h I will make your grave, i for you are vile.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nahum 2:3</t>
+          <t>Nahum 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The shield of his mighty men is red; - his soldiers are clothed in scarlet. - The chariots come with flashing metal - on the day he musters them; the cypress spears are brandished. -</t>
+          <t>j Behold, upon the mountains, k the feet of him who brings good news, who publishes peace! l Keep your feasts, O Judah; m fulfill your vows, n for never again shall the worthless pass through you; he is utterly cut off. The Destruction of Nineveh 2:1 o The scatterer has come up against you. p Man the ramparts; watch the road; dress for battle; collect all your strength.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nahum 2:4</t>
+          <t>Nahum 2:2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The chariots race madly through the streets; - they rush to and fro through the squares; - they gleam like torches; - they dart like lightning. -</t>
+          <t>For q the Lord is restoring the majesty of Jacob as the majesty of Israel, for plunderers have plundered them and r ruined their branches.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nahum 2:5</t>
+          <t>Nahum 2:3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>He remembers his officers; - they stumble as they go, - they hasten to the wall; - the siege towe16 r is set up. -</t>
+          <t>The shield of his mighty men is red; s his soldiers are clothed in scarlet. The chariots come with flashing metal on the day he musters them; the cypress spears are brandished.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nahum 2:6</t>
+          <t>Nahum 2:4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The river gates are opened; - the palace melts away; -</t>
+          <t>t The chariots race madly through the streets; they rush to and fro through the squares; they gleam like torches; they dart like lightning.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nahum 2:7</t>
+          <t>Nahum 2:5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>its mistres's is stripped; she is carried off, - her slave girls lamenting, - moaning like doves - and beating their breasts. -</t>
+          <t>He remembers u his officers; v they stumble as they go, they hasten to the wall; the siege towe r is set up.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nahum 2:8</t>
+          <t>Nahum 2:6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nineveh is like a pool - whose waters run away. - Halt! Halt! they cry, - but none turns back. -</t>
+          <t>w The river gates are opened; the palace x melts away;</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nahum 2:9</t>
+          <t>Nahum 2:7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Plunder the silver, - plunder the gold! - There is no end of the treasure - or of the wealth of all precious things. -</t>
+          <t>its mistres s is y stripped; she is carried off, her slave girls z lamenting, moaning like doves and beating their breasts.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nahum 2:10</t>
+          <t>Nahum 2:8</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Desolate! Desolation and ruin! - Hearts melt and knees tremble; - anguish is in all loins; - all faces grow pale! -</t>
+          <t>b Nineveh is like a pool whose waters run away. Halt! Halt! they cry, but c none turns back.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nahum 2:11</t>
+          <t>Nahum 2:9</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Where is the lions den, - the feeding place of the young lions, - where the lion and lioness went, - where his cubs were, with none to disturb -</t>
+          <t>Plunder the silver, plunder the gold! There is no end of the treasure or of the wealth of all precious things.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nahum 2:12</t>
+          <t>Nahum 2:10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The lion tore enough for his cubs - and strangled prey for his lionesses; - he filled his caves with prey - and his dens with torn flesh.</t>
+          <t>d Desolate! Desolation and ruin! e Hearts melt and f knees tremble; g anguish is in all loins; h all faces grow pale!</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nahum 3:1</t>
+          <t>Nahum 2:11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Woe to the bloody city, - all full of lies and plunder - no end to the prey! -</t>
+          <t>Where is the lions den, the feeding place of i the young lions, where the lion and lioness went, where his cubs were, with j none to disturb?</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nahum 3:2</t>
+          <t>Nahum 2:12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The crack of the whip, and rumble of the wheel, - galloping horse and bounding chariot! -</t>
+          <t>k The lion tore enough for his cubs and l strangled prey for his lionesses; he filled his caves with prey and his dens with torn flesh.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nahum 3:3</t>
+          <t>Nahum 2:13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Horsemen charging, - flashing sword and glittering spear, - hosts of slain, - heaps of corpses, - dead bodies without en16 d16 - they stumble over the bodies! -</t>
+          <t>m Behold, I am against you, declares the Lord of hosts, and n I will burn you r chariots in smoke, and the sword shall devour your young lions. I will cut off your prey from the earth, and o the voice of your messengers shall no long?er be heard. Woe to Nineveh 3:1 Woe to p the bloody city, all full of lies and plunder q no end to the prey!</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nahum 3:4</t>
+          <t>Nahum 3:2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>And all for the countless whorings of the prostitute, - graceful and of deadly charms, - who betrays nations with her whorings, - and peoples with her charms. -</t>
+          <t>The crack of the whip, and r rumble of the wheel, s galloping horse and t bounding chariot!</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nahum 3:5</t>
+          <t>Nahum 3:3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Behold, I m against you, - declares the Lord of hosts, and will lift up your skirts over your face; - and I will make nations look at your nakedness - and kingdoms at your shame. -</t>
+          <t>Horsemen charging, flashing sword and u glittering spear, v hosts of slain, heaps of corpses, dead bodies without en d they stumble over the bodies!</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nahum 3:6</t>
+          <t>Nahum 3:4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>I will throw filth at you - and treat you with contempt and make you a spectacle. -</t>
+          <t>And all for the countless whorings of the w prostitute, x graceful and of deadly charms, who betrays nations with her whorings, and peoples with her charms.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nahum 3:7</t>
+          <t>Nahum 3:5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>And all who look at you will shrink from you and say, - Wasted is Nineveh; who will grieve for her - Where shall I seek comforters for you -</t>
+          <t>m Behold, I am against you, declares the Lord of hosts, and y will lift up your skirts over your face; and I will make nations look at z your nakedness and kingdoms at your shame.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nahum 3:8</t>
+          <t>Nahum 3:6</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Are you better than Thebe16's - that sat by the Nile, - with water around her, - her rampart a sea, and water her wall -</t>
+          <t>I will throw filth at you and a treat you with contempt and make you b a spectacle.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nahum 3:9</t>
+          <t>Nahum 3:7</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cush was her strength; - Egypt too, and that without limit; - Put and the Libyans were he16 r helpers. -</t>
+          <t>And all who look at you c will shrink from you and say, Wasted is d Nineveh; e who will grieve for her? f Where shall I seek comforters for you?</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nahum 3:10</t>
+          <t>Nahum 3:8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Yet she became an exile; - she went into captivity; - her infants were dashed in pieces - at the head of every street; - for her honored men lots were cast, - and all her great men were bound in chains. -</t>
+          <t>g Are you better than h Thebe s that sat i by the Nile, with water around her, her rampart a sea, and water her wall?</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nahum 3:11</t>
+          <t>Nahum 3:9</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>You also will be drunken; - you will go into hiding; - you will seek a refuge from the enemy.</t>
+          <t>j Cush was her strength; Egypt too, and that without limit; k Put and the l Libyans were he r helpers.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nahum 3:12</t>
+          <t>Nahum 3:10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>All your fortresses are like fig trees - with first- ripe fig16 s16 - if shaken they fall - into the mouth of the eater. -</t>
+          <t>m Yet she became an exile; she went into captivity; n her infants were dashed in pieces at the head of every street; for her honored men o lots were cast, p and all her great men were bound in chains.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nahum 3:13</t>
+          <t>Nahum 3:11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Behold, your troops - are women in your midst. - The gates of your land - are wide open to your enemies; - fire has devoured your bars. -</t>
+          <t>q You also will be drunken; you will go into hiding; r you will seek a refuge from the enemy.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nahum 3:14</t>
+          <t>Nahum 3:12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Draw water for the siege; - strengthen your forts; - go into the clay; - tread the mortar; take hold of the brick mold! -</t>
+          <t>All your fortresses are s like fig trees with first-ripe fig s if shaken they fall into the mouth of the eater.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nahum 3:15</t>
+          <t>Nahum 3:13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>There will the fire devour you; - the sword will cut you off. It will devour you like the locust. - Multiply yourselves like the locust; - multiply like the grasshopper! -</t>
+          <t>Behold, your troops t are women in your midst. The gates of your land are wide open to your enemies; fire has devoured your bars.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nahum 3:16</t>
+          <t>Nahum 3:14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>You increased your merchants - more than the stars of the heavens. - The locust spreads its wings and flies away. -</t>
+          <t>u Draw water for the siege; r strengthen your forts; go into the clay; tread the mortar; take hold of the brick mold!</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nahum 3:17</t>
+          <t>Nahum 3:15</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Your prince16's are like grasshoppers, - your scribe16's 1 like clouds of locusts - settling on the fences - in a day of col16 d16 - when the sun rises, they fly away; - no one knows where they are. -</t>
+          <t>There will the fire devour you; the sword will cut you off. It will v devour you w like the locust. Multiply yourselves w like the locust; multiply w like the grasshopper!</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nahum 3:18</t>
+          <t>Nahum 3:16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Your shepherds are asleep, - O king of Assyria; your nobles slumber. - Your people are scattered on the mountains - with none to gather them. -</t>
+          <t>You increased x your merchants more than the stars of the heavens. w The locust spreads its wings and flies away.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Nahum 3:17</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Your z prince s are w like grasshoppers, a your scribe s like clouds of locusts settling on the fences in a day of col d when the sun rises, they fly away; no one knows where they are.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nahum 3:18</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Your shepherds b are asleep, O king of Assyria; c your nobles slumber. Your people d are scattered on the mountains with none to gather them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>Nahum 3:19</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>There is no easing your hurt; - your wound is grievous. - All who hear the news about you - clap their hands over you. - For upon whom has not come - your unceasing evil</t>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>There is no easing your hurt; e your wound is grievous. All who hear the news about you f clap their hands over you. For g upon whom has not come your unceasing evil?</t>
         </is>
       </c>
     </row>
